--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_74.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_74.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yui Sato</t>
+          <t>Yumiko Ota</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
